--- a/data/trans_camb/P25_10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_10-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 16,15</t>
+          <t>-8,6; 19,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 3,02</t>
+          <t>-14,74; 5,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 6,41</t>
+          <t>-9,88; 21,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 3,0</t>
+          <t>-22,4; 14,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 9,25</t>
+          <t>-21,66; 17,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 2,88</t>
+          <t>-16,91; 26,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-12,5; 14,6</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-16,86; 9,51</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; 22,12</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>108,22%</t>
+          <t>57,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-41,67%</t>
+          <t>-54,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,76%</t>
+          <t>74,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-27,64%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>-6,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,89%</t>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-14,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 462,02</t>
+          <t>-66,4; 706,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-89,78; 135,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 19,58</t>
+          <t>-62,3; 617,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,29; 7,96</t>
+          <t>-46,92; 55,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,32; 51,93</t>
+          <t>-45,33; 60,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,12; 14,06</t>
+          <t>-35,64; 92,29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-42,25; 83,62</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,74; 55,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,55; 121,1</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,09</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-5,47</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 1,33</t>
+          <t>-7,66; 2,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,41</t>
+          <t>-5,95; 4,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,29; -0,76</t>
+          <t>-4,29; 8,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -0,92</t>
+          <t>-16,3; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -1,06</t>
+          <t>-14,84; 2,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 0,23</t>
+          <t>-8,29; 11,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,42; -0,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 1,95</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 6,51</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,66%</t>
+          <t>-34,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,85%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,26%</t>
+          <t>-26,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,37%</t>
+          <t>-22,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,34%</t>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-29,63%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-23,32%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,75; 33,08</t>
+          <t>-76,12; 81,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,76; 123,8</t>
+          <t>-59,4; 141,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,46; -2,76</t>
+          <t>-44,32; 238,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,89; -3,59</t>
+          <t>-48,87; 5,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,86; -7,58</t>
+          <t>-44,82; 11,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 2,24</t>
+          <t>-24,82; 44,92</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-49,07; -0,22</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-45,21; 12,84</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-24,49; 40,38</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,71</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 2,28</t>
+          <t>-7,64; 2,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,47</t>
+          <t>-7,55; 3,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 6,62</t>
+          <t>-4,51; 6,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 2,77</t>
+          <t>-7,26; 8,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,48</t>
+          <t>-13,26; 1,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 1,47</t>
+          <t>-5,82; 11,03</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,7; 4,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 1,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 7,19</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-26,15%</t>
+          <t>-34,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>-26,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-20,61%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,3%</t>
+          <t>-29,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-30,17%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,19; 104,46</t>
+          <t>-86,92; 100,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,0; 138,61</t>
+          <t>-83,14; 132,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 45,98</t>
+          <t>-63,68; 227,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 20,32</t>
+          <t>-32,43; 60,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 34,46</t>
+          <t>-62,84; 14,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 15,41</t>
+          <t>-28,84; 81,74</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-38,08; 46,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-57,52; 11,37</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-29,87; 72,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,86; -1,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 47,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 62,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,9; -0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,11; -6,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,39; -6,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-3,52</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,98</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,76; 2,29</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 1,97</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 6,54</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-9,38; 2,31</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 0,63</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 10,51</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 1,0</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 0,1</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 6,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-19,05%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-22,65%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>36,47%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-13,77%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-19,47%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,08%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-22,55%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-56,72; 46,26</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-59,26; 44,95</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-22,3; 140,48</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-32,35; 10,4</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-37,93; 3,48</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 46,88</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-34,1; 5,45</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-40,44; 0,78</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 46,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
